--- a/ForcesMomentsToFunc/plots_forces_moments_blood.xlsx
+++ b/ForcesMomentsToFunc/plots_forces_moments_blood.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E265AA34-C108-4E17-9D71-55D9F52479A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -116,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,18 +266,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -329,7 +318,6 @@
           <c:y val="2.3148148148148147E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -337,33 +325,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -455,7 +421,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
@@ -552,7 +518,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
@@ -649,7 +615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
@@ -746,7 +712,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
@@ -843,7 +809,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
@@ -934,32 +900,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-63CA-4996-B443-9A277B841C5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="739385840"/>
-        <c:axId val="739381904"/>
+        <c:dLbls/>
+        <c:axId val="111111168"/>
+        <c:axId val="111125632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="739385840"/>
+        <c:axId val="111111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1014,7 +971,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1022,30 +979,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1080,16 +1016,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739381904"/>
+        <c:crossAx val="111125632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="739381904"/>
+        <c:axId val="111125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1140,7 +1075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1148,30 +1083,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1206,7 +1120,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739385840"/>
+        <c:crossAx val="111111168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,7 +1134,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1251,14 +1165,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1287,25 +1200,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1350,7 +1253,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1358,33 +1261,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1476,7 +1357,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
@@ -1573,7 +1454,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
@@ -1670,7 +1551,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
@@ -1767,7 +1648,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
@@ -1864,7 +1745,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
@@ -1955,32 +1836,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-78D3-44BC-BA4E-D0345A9DCCCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="738699808"/>
-        <c:axId val="738692920"/>
+        <c:dLbls/>
+        <c:axId val="112912640"/>
+        <c:axId val="112808320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="738699808"/>
+        <c:axId val="112912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2039,7 +1911,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2047,30 +1919,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2105,16 +1956,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="738692920"/>
+        <c:crossAx val="112808320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="738692920"/>
+        <c:axId val="112808320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2167,7 +2017,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2175,30 +2025,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2233,7 +2062,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="738699808"/>
+        <c:crossAx val="112912640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2247,7 +2076,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2278,14 +2107,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2314,25 +2142,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2375,7 +2193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2383,33 +2200,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2501,7 +2296,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
@@ -2598,7 +2393,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
@@ -2695,7 +2490,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
@@ -2792,7 +2587,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
@@ -2889,7 +2684,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
@@ -2980,31 +2775,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E59A-48E2-ACD4-FEC941224056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="795134608"/>
-        <c:axId val="795132312"/>
+        <c:dLbls/>
+        <c:axId val="112961024"/>
+        <c:axId val="112962944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="795134608"/>
+        <c:axId val="112961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3054,7 +2841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3062,30 +2848,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3120,16 +2885,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795132312"/>
+        <c:crossAx val="112962944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="795132312"/>
+        <c:axId val="112962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3180,7 +2944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3188,30 +2951,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3246,7 +2988,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="795134608"/>
+        <c:crossAx val="112961024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3260,7 +3002,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3291,14 +3032,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3327,25 +3067,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3390,7 +3120,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3398,33 +3128,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3516,7 +3224,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
@@ -3613,7 +3321,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
@@ -3710,7 +3418,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
@@ -3807,7 +3515,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
@@ -3904,7 +3612,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
@@ -3995,32 +3703,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-025D-41AC-8336-709805CE3EF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="788398144"/>
-        <c:axId val="788398472"/>
+        <c:dLbls/>
+        <c:axId val="113079040"/>
+        <c:axId val="113080960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="788398144"/>
+        <c:axId val="113079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4079,7 +3778,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4087,30 +3786,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4145,16 +3823,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788398472"/>
+        <c:crossAx val="113080960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="788398472"/>
+        <c:axId val="113080960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4207,7 +3884,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4215,30 +3892,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4273,7 +3929,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788398144"/>
+        <c:crossAx val="113079040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4287,7 +3943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4318,14 +3974,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4354,25 +4009,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4417,7 +4062,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4425,33 +4070,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4543,7 +4166,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
@@ -4640,7 +4263,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
@@ -4737,7 +4360,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
@@ -4834,7 +4457,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
@@ -4931,7 +4554,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
@@ -5022,32 +4645,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-9EA7-4145-BFB7-FAAA1EB4BDC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="806435736"/>
-        <c:axId val="806433440"/>
+        <c:dLbls/>
+        <c:axId val="113176576"/>
+        <c:axId val="113178496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="806435736"/>
+        <c:axId val="113176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5106,7 +4720,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5114,30 +4728,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5172,16 +4765,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="806433440"/>
+        <c:crossAx val="113178496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="806433440"/>
+        <c:axId val="113178496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5227,7 +4819,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5235,30 +4827,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5293,7 +4864,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="806435736"/>
+        <c:crossAx val="113176576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5307,7 +4878,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5338,14 +4909,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5374,25 +4944,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5437,7 +4997,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5445,33 +5004,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5563,7 +5100,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
@@ -5660,7 +5197,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
@@ -5757,7 +5294,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
@@ -5854,7 +5391,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
@@ -5951,7 +5488,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
@@ -6039,31 +5576,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A69D-4711-A4C0-BEF06EC648D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="796985776"/>
-        <c:axId val="796983480"/>
+        <c:dLbls/>
+        <c:axId val="113331200"/>
+        <c:axId val="113362048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="796985776"/>
+        <c:axId val="113331200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
           <c:min val="6000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6122,7 +5651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6130,30 +5658,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6188,16 +5695,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796983480"/>
+        <c:crossAx val="113362048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="796983480"/>
+        <c:axId val="113362048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6256,7 +5762,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6264,30 +5769,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6322,7 +5806,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796985776"/>
+        <c:crossAx val="113331200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6336,7 +5820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6367,14 +5850,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6403,25 +5885,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6449,7 +5921,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6457,33 +5928,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6563,7 +6012,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -6654,7 +6103,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -6745,7 +6194,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -6836,7 +6285,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -6927,7 +6376,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -7018,7 +6467,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
@@ -7115,31 +6564,23 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0B41-4950-B9A6-A756D164C6A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="814492968"/>
-        <c:axId val="814495592"/>
+        <c:dLbls/>
+        <c:axId val="113479680"/>
+        <c:axId val="113481600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="814492968"/>
+        <c:axId val="113479680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.10500000000000001"/>
+          <c:max val="0.10500000000000002"/>
           <c:min val="1.7500000000000005E-2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7194,7 +6635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7202,30 +6642,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7260,16 +6679,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="814495592"/>
+        <c:crossAx val="113481600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="814495592"/>
+        <c:axId val="113481600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7319,7 +6737,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7327,30 +6744,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7385,7 +6781,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="814492968"/>
+        <c:crossAx val="113479680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7399,7 +6795,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7430,14 +6825,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7466,7 +6860,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11384,7 +10778,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9252679-79F3-47D7-9E43-338B8A808357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9252679-79F3-47D7-9E43-338B8A808357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11393,10 +10787,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11434,7 +10828,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3D5C38-C189-4A03-A5C4-077C3FFBB810}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE3D5C38-C189-4A03-A5C4-077C3FFBB810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11470,7 +10864,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E27CBEE-EE10-49C8-ADFA-63BF697D6AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E27CBEE-EE10-49C8-ADFA-63BF697D6AEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11506,7 +10900,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B7955A-FF12-461D-8991-00D9CEC19ACD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76B7955A-FF12-461D-8991-00D9CEC19ACD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11542,7 +10936,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C834BCAD-FE89-4483-81C2-83054B7303AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C834BCAD-FE89-4483-81C2-83054B7303AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11578,7 +10972,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718140EA-8461-4729-B4A0-3537BAC37DB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{718140EA-8461-4729-B4A0-3537BAC37DB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11614,7 +11008,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB4D398-31B5-44B9-AECD-CF01CF62E1BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AB4D398-31B5-44B9-AECD-CF01CF62E1BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11650,7 +11044,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E519137-4E68-429C-8B0D-6D92C0473A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E519137-4E68-429C-8B0D-6D92C0473A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11714,7 +11108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11746,27 +11140,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11798,24 +11174,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -11991,14 +11349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -12011,7 +11369,7 @@
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12052,7 +11410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12093,7 +11451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>6000</v>
       </c>
@@ -12122,11 +11480,11 @@
         <v>1.08821E-3</v>
       </c>
       <c r="J3">
-        <f>SQRT(D3^2+E3^2)</f>
+        <f t="shared" ref="J3:J43" si="0">SQRT(D3^2+E3^2)</f>
         <v>1.7228498856606748E-3</v>
       </c>
       <c r="K3">
-        <f>SQRT(G3^2+H3^2)</f>
+        <f t="shared" ref="K3:K43" si="1">SQRT(G3^2+H3^2)</f>
         <v>7.6280879286817356E-5</v>
       </c>
       <c r="S3" s="1">
@@ -12136,7 +11494,7 @@
         <v>9.53739E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>6000</v>
       </c>
@@ -12165,11 +11523,11 @@
         <v>1.0294099999999999E-3</v>
       </c>
       <c r="J4">
-        <f>SQRT(D4^2+E4^2)</f>
+        <f t="shared" si="0"/>
         <v>2.6229197615764935E-2</v>
       </c>
       <c r="K4">
-        <f>SQRT(G4^2+H4^2)</f>
+        <f t="shared" si="1"/>
         <v>1.8839043404089179E-3</v>
       </c>
       <c r="S4" s="1">
@@ -12179,7 +11537,7 @@
         <v>9.6879300000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>6000</v>
       </c>
@@ -12208,11 +11566,11 @@
         <v>1.0952100000000001E-3</v>
       </c>
       <c r="J5">
-        <f>SQRT(D5^2+E5^2)</f>
+        <f t="shared" si="0"/>
         <v>1.8651331131841501E-3</v>
       </c>
       <c r="K5">
-        <f>SQRT(G5^2+H5^2)</f>
+        <f t="shared" si="1"/>
         <v>1.3228244178892373E-4</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -12225,7 +11583,7 @@
         <v>-3.2221399999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>6000</v>
       </c>
@@ -12254,11 +11612,11 @@
         <v>1.2238100000000001E-3</v>
       </c>
       <c r="J6">
-        <f>SQRT(D6^2+E6^2)</f>
+        <f t="shared" si="0"/>
         <v>9.0052138020757727E-4</v>
       </c>
       <c r="K6">
-        <f>SQRT(G6^2+H6^2)</f>
+        <f t="shared" si="1"/>
         <v>5.3495491052258611E-5</v>
       </c>
       <c r="S6" s="1">
@@ -12268,7 +11626,7 @@
         <v>-4.0348600000000002E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -12297,11 +11655,11 @@
         <v>1.2933599999999999E-3</v>
       </c>
       <c r="J7">
-        <f>SQRT(D7^2+E7^2)</f>
+        <f t="shared" si="0"/>
         <v>2.0893442301595489E-3</v>
       </c>
       <c r="K7">
-        <f>SQRT(G7^2+H7^2)</f>
+        <f t="shared" si="1"/>
         <v>1.7355661393358076E-4</v>
       </c>
       <c r="S7" s="1">
@@ -12311,7 +11669,7 @@
         <v>6.2564900000000004E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>7500</v>
       </c>
@@ -12340,11 +11698,11 @@
         <v>1.74697E-3</v>
       </c>
       <c r="J8">
-        <f>SQRT(D8^2+E8^2)</f>
+        <f t="shared" si="0"/>
         <v>5.2772179860225595E-3</v>
       </c>
       <c r="K8">
-        <f>SQRT(G8^2+H8^2)</f>
+        <f t="shared" si="1"/>
         <v>6.6461734332170423E-4</v>
       </c>
       <c r="S8" s="1">
@@ -12354,7 +11712,7 @@
         <v>-4.9691199999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7500</v>
       </c>
@@ -12383,11 +11741,11 @@
         <v>1.69837E-3</v>
       </c>
       <c r="J9">
-        <f>SQRT(D9^2+E9^2)</f>
+        <f t="shared" si="0"/>
         <v>1.9432079821440861E-2</v>
       </c>
       <c r="K9">
-        <f>SQRT(G9^2+H9^2)</f>
+        <f t="shared" si="1"/>
         <v>1.5040439509017016E-3</v>
       </c>
       <c r="S9" s="1">
@@ -12397,7 +11755,7 @@
         <v>1.6254299999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>7500</v>
       </c>
@@ -12426,11 +11784,11 @@
         <v>1.6542799999999999E-3</v>
       </c>
       <c r="J10">
-        <f>SQRT(D10^2+E10^2)</f>
+        <f t="shared" si="0"/>
         <v>1.746483019236374E-2</v>
       </c>
       <c r="K10">
-        <f>SQRT(G10^2+H10^2)</f>
+        <f t="shared" si="1"/>
         <v>1.2445920061312302E-3</v>
       </c>
       <c r="S10" s="1">
@@ -12440,7 +11798,7 @@
         <v>1.2644100000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>7500</v>
       </c>
@@ -12469,11 +11827,11 @@
         <v>1.7625200000000001E-3</v>
       </c>
       <c r="J11">
-        <f>SQRT(D11^2+E11^2)</f>
+        <f t="shared" si="0"/>
         <v>6.6554721658496931E-4</v>
       </c>
       <c r="K11">
-        <f>SQRT(G11^2+H11^2)</f>
+        <f t="shared" si="1"/>
         <v>5.5893452754876398E-5</v>
       </c>
       <c r="S11" s="1">
@@ -12483,7 +11841,7 @@
         <v>-6.5014800000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>7500</v>
       </c>
@@ -12512,11 +11870,11 @@
         <v>1.91383E-3</v>
       </c>
       <c r="J12">
-        <f>SQRT(D12^2+E12^2)</f>
+        <f t="shared" si="0"/>
         <v>4.9622008242557051E-4</v>
       </c>
       <c r="K12">
-        <f>SQRT(G12^2+H12^2)</f>
+        <f t="shared" si="1"/>
         <v>1.7076693788318629E-5</v>
       </c>
       <c r="S12" s="1">
@@ -12526,7 +11884,7 @@
         <v>8.2101200000000006E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>7500</v>
       </c>
@@ -12555,11 +11913,11 @@
         <v>2.0014999999999998E-3</v>
       </c>
       <c r="J13">
-        <f>SQRT(D13^2+E13^2)</f>
+        <f t="shared" si="0"/>
         <v>1.6947949370056544E-3</v>
       </c>
       <c r="K13">
-        <f>SQRT(G13^2+H13^2)</f>
+        <f t="shared" si="1"/>
         <v>1.5332284670472305E-4</v>
       </c>
       <c r="S13" s="1">
@@ -12569,7 +11927,7 @@
         <v>1.2423200000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9000</v>
       </c>
@@ -12598,11 +11956,11 @@
         <v>2.57807E-3</v>
       </c>
       <c r="J14">
-        <f>SQRT(D14^2+E14^2)</f>
+        <f t="shared" si="0"/>
         <v>1.5603608549627231E-2</v>
       </c>
       <c r="K14">
-        <f>SQRT(G14^2+H14^2)</f>
+        <f t="shared" si="1"/>
         <v>1.4502734454098646E-3</v>
       </c>
       <c r="S14" s="1">
@@ -12612,7 +11970,7 @@
         <v>-1.4530100000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>9000</v>
       </c>
@@ -12641,11 +11999,11 @@
         <v>2.5083499999999999E-3</v>
       </c>
       <c r="J15">
-        <f>SQRT(D15^2+E15^2)</f>
+        <f t="shared" si="0"/>
         <v>6.7034239901859107E-3</v>
       </c>
       <c r="K15">
-        <f>SQRT(G15^2+H15^2)</f>
+        <f t="shared" si="1"/>
         <v>3.8964125990069377E-4</v>
       </c>
       <c r="S15" s="1">
@@ -12655,7 +12013,7 @@
         <v>5.8079899999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>9000</v>
       </c>
@@ -12684,11 +12042,11 @@
         <v>2.4058899999999999E-3</v>
       </c>
       <c r="J16">
-        <f>SQRT(D16^2+E16^2)</f>
+        <f t="shared" si="0"/>
         <v>6.4053800885334661E-2</v>
       </c>
       <c r="K16">
-        <f>SQRT(G16^2+H16^2)</f>
+        <f t="shared" si="1"/>
         <v>4.6143815769050791E-3</v>
       </c>
       <c r="S16" s="1">
@@ -12698,7 +12056,7 @@
         <v>-3.60809E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>9000</v>
       </c>
@@ -12727,11 +12085,11 @@
         <v>2.4511300000000001E-3</v>
       </c>
       <c r="J17">
-        <f>SQRT(D17^2+E17^2)</f>
+        <f t="shared" si="0"/>
         <v>9.518073396949038E-3</v>
       </c>
       <c r="K17">
-        <f>SQRT(G17^2+H17^2)</f>
+        <f t="shared" si="1"/>
         <v>6.6963236086617676E-4</v>
       </c>
       <c r="L17" t="s">
@@ -12744,7 +12102,7 @@
         <v>4.47453E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>9000</v>
       </c>
@@ -12773,11 +12131,11 @@
         <v>2.5911699999999998E-3</v>
       </c>
       <c r="J18">
-        <f>SQRT(D18^2+E18^2)</f>
+        <f t="shared" si="0"/>
         <v>1.5626685296444027E-3</v>
       </c>
       <c r="K18">
-        <f>SQRT(G18^2+H18^2)</f>
+        <f t="shared" si="1"/>
         <v>1.257997932281687E-4</v>
       </c>
       <c r="L18" t="s">
@@ -12790,7 +12148,7 @@
         <v>-6.9487900000000003E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>9000</v>
       </c>
@@ -12819,11 +12177,11 @@
         <v>2.7592599999999999E-3</v>
       </c>
       <c r="J19">
-        <f>SQRT(D19^2+E19^2)</f>
+        <f t="shared" si="0"/>
         <v>5.452639151686089E-4</v>
       </c>
       <c r="K19">
-        <f>SQRT(G19^2+H19^2)</f>
+        <f t="shared" si="1"/>
         <v>7.6699620990263056E-5</v>
       </c>
       <c r="S19" s="1">
@@ -12833,7 +12191,7 @@
         <v>1.88209E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>10500</v>
       </c>
@@ -12862,11 +12220,11 @@
         <v>3.5847000000000001E-3</v>
       </c>
       <c r="J20">
-        <f>SQRT(D20^2+E20^2)</f>
+        <f t="shared" si="0"/>
         <v>3.3508787221414031E-2</v>
       </c>
       <c r="K20">
-        <f>SQRT(G20^2+H20^2)</f>
+        <f t="shared" si="1"/>
         <v>2.5089076541395458E-3</v>
       </c>
       <c r="L20" t="s">
@@ -12879,7 +12237,7 @@
         <v>-1.7741199999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1">
       <c r="A21">
         <v>10500</v>
       </c>
@@ -12908,11 +12266,11 @@
         <v>3.4857500000000001E-3</v>
       </c>
       <c r="J21">
-        <f>SQRT(D21^2+E21^2)</f>
+        <f t="shared" si="0"/>
         <v>1.7316694466138739E-2</v>
       </c>
       <c r="K21">
-        <f>SQRT(G21^2+H21^2)</f>
+        <f t="shared" si="1"/>
         <v>1.4010673882793789E-3</v>
       </c>
       <c r="S21" s="1">
@@ -12922,7 +12280,7 @@
         <v>2.23544E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>10500</v>
       </c>
@@ -12951,11 +12309,11 @@
         <v>3.38185E-3</v>
       </c>
       <c r="J22">
-        <f>SQRT(D22^2+E22^2)</f>
+        <f t="shared" si="0"/>
         <v>8.0314066640850029E-2</v>
       </c>
       <c r="K22">
-        <f>SQRT(G22^2+H22^2)</f>
+        <f t="shared" si="1"/>
         <v>5.9174056122241817E-3</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -12971,7 +12329,7 @@
         <v>3.3755299999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>10500</v>
       </c>
@@ -13000,11 +12358,11 @@
         <v>3.3247300000000001E-3</v>
       </c>
       <c r="J23">
-        <f>SQRT(D23^2+E23^2)</f>
+        <f t="shared" si="0"/>
         <v>5.3607304830028527E-2</v>
       </c>
       <c r="K23">
-        <f>SQRT(G23^2+H23^2)</f>
+        <f t="shared" si="1"/>
         <v>3.8264495419645874E-3</v>
       </c>
       <c r="L23" s="5">
@@ -13020,7 +12378,7 @@
         <v>-7.5414000000000004E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>10500</v>
       </c>
@@ -13049,11 +12407,11 @@
         <v>3.4055700000000001E-3</v>
       </c>
       <c r="J24">
-        <f>SQRT(D24^2+E24^2)</f>
+        <f t="shared" si="0"/>
         <v>2.287716184538633E-3</v>
       </c>
       <c r="K24">
-        <f>SQRT(G24^2+H24^2)</f>
+        <f t="shared" si="1"/>
         <v>1.3268573955813791E-4</v>
       </c>
       <c r="L24" s="5">
@@ -13069,7 +12427,7 @@
         <v>1.03107E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>10500</v>
       </c>
@@ -13098,11 +12456,11 @@
         <v>3.5773900000000002E-3</v>
       </c>
       <c r="J25">
-        <f>SQRT(D25^2+E25^2)</f>
+        <f t="shared" si="0"/>
         <v>3.0193796182310362E-3</v>
       </c>
       <c r="K25">
-        <f>SQRT(G25^2+H25^2)</f>
+        <f t="shared" si="1"/>
         <v>2.3335557334411365E-4</v>
       </c>
       <c r="L25" s="5">
@@ -13118,7 +12476,7 @@
         <v>-9.0966699999999996E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>12000</v>
       </c>
@@ -13147,11 +12505,11 @@
         <v>4.7782399999999996E-3</v>
       </c>
       <c r="J26">
-        <f>SQRT(D26^2+E26^2)</f>
+        <f t="shared" si="0"/>
         <v>6.2392750559099409E-2</v>
       </c>
       <c r="K26">
-        <f>SQRT(G26^2+H26^2)</f>
+        <f t="shared" si="1"/>
         <v>4.4045358042477077E-3</v>
       </c>
       <c r="L26" s="5">
@@ -13167,7 +12525,7 @@
         <v>-1.72988E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>12000</v>
       </c>
@@ -13196,11 +12554,11 @@
         <v>4.6192400000000002E-3</v>
       </c>
       <c r="J27">
-        <f>SQRT(D27^2+E27^2)</f>
+        <f t="shared" si="0"/>
         <v>3.8787424108683737E-2</v>
       </c>
       <c r="K27">
-        <f>SQRT(G27^2+H27^2)</f>
+        <f t="shared" si="1"/>
         <v>3.1206572769210015E-3</v>
       </c>
       <c r="L27" s="5">
@@ -13216,7 +12574,7 @@
         <v>-6.8903699999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1">
       <c r="A28">
         <v>12000</v>
       </c>
@@ -13245,11 +12603,11 @@
         <v>4.5258599999999996E-3</v>
       </c>
       <c r="J28">
-        <f>SQRT(D28^2+E28^2)</f>
+        <f t="shared" si="0"/>
         <v>6.1511840832151984E-2</v>
       </c>
       <c r="K28">
-        <f>SQRT(G28^2+H28^2)</f>
+        <f t="shared" si="1"/>
         <v>4.4899023281692882E-3</v>
       </c>
       <c r="L28" s="7">
@@ -13265,7 +12623,7 @@
         <v>2.104E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>12000</v>
       </c>
@@ -13294,11 +12652,11 @@
         <v>4.39478E-3</v>
       </c>
       <c r="J29">
-        <f>SQRT(D29^2+E29^2)</f>
+        <f t="shared" si="0"/>
         <v>0.11958791197926319</v>
       </c>
       <c r="K29">
-        <f>SQRT(G29^2+H29^2)</f>
+        <f t="shared" si="1"/>
         <v>8.6174277960674554E-3</v>
       </c>
       <c r="S29" s="1">
@@ -13308,7 +12666,7 @@
         <v>-1.3201600000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>12000</v>
       </c>
@@ -13337,11 +12695,11 @@
         <v>4.4220600000000002E-3</v>
       </c>
       <c r="J30">
-        <f>SQRT(D30^2+E30^2)</f>
+        <f t="shared" si="0"/>
         <v>4.0199945730462122E-2</v>
       </c>
       <c r="K30">
-        <f>SQRT(G30^2+H30^2)</f>
+        <f t="shared" si="1"/>
         <v>2.8555766177409772E-3</v>
       </c>
       <c r="L30" t="s">
@@ -13354,7 +12712,7 @@
         <v>3.30811E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>12000</v>
       </c>
@@ -13383,11 +12741,11 @@
         <v>4.5191600000000004E-3</v>
       </c>
       <c r="J31">
-        <f>SQRT(D31^2+E31^2)</f>
+        <f t="shared" si="0"/>
         <v>6.1983187448533166E-3</v>
       </c>
       <c r="K31">
-        <f>SQRT(G31^2+H31^2)</f>
+        <f t="shared" si="1"/>
         <v>4.6648420980136077E-4</v>
       </c>
       <c r="L31" t="s">
@@ -13400,7 +12758,7 @@
         <v>1.92132E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>13500</v>
       </c>
@@ -13429,11 +12787,11 @@
         <v>6.15775E-3</v>
       </c>
       <c r="J32">
-        <f>SQRT(D32^2+E32^2)</f>
+        <f t="shared" si="0"/>
         <v>9.445691148285551E-2</v>
       </c>
       <c r="K32">
-        <f>SQRT(G32^2+H32^2)</f>
+        <f t="shared" si="1"/>
         <v>6.6274920831714311E-3</v>
       </c>
       <c r="L32" t="s">
@@ -13446,7 +12804,7 @@
         <v>-1.25072E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>13500</v>
       </c>
@@ -13475,11 +12833,11 @@
         <v>5.9159700000000004E-3</v>
       </c>
       <c r="J33">
-        <f>SQRT(D33^2+E33^2)</f>
+        <f t="shared" si="0"/>
         <v>7.4576786141868578E-2</v>
       </c>
       <c r="K33">
-        <f>SQRT(G33^2+H33^2)</f>
+        <f t="shared" si="1"/>
         <v>5.8326861183249003E-3</v>
       </c>
       <c r="L33" t="s">
@@ -13492,7 +12850,7 @@
         <v>-1.8135100000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>13500</v>
       </c>
@@ -13521,11 +12879,11 @@
         <v>5.83163E-3</v>
       </c>
       <c r="J34">
-        <f>SQRT(D34^2+E34^2)</f>
+        <f t="shared" si="0"/>
         <v>8.4103788855675224E-2</v>
       </c>
       <c r="K34">
-        <f>SQRT(G34^2+H34^2)</f>
+        <f t="shared" si="1"/>
         <v>6.2420880355855291E-3</v>
       </c>
       <c r="L34" t="s">
@@ -13538,7 +12896,7 @@
         <v>1.5912200000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>13500</v>
       </c>
@@ -13567,11 +12925,11 @@
         <v>5.6652600000000001E-3</v>
       </c>
       <c r="J35">
-        <f>SQRT(D35^2+E35^2)</f>
+        <f t="shared" si="0"/>
         <v>0.13789797478827454</v>
       </c>
       <c r="K35">
-        <f>SQRT(G35^2+H35^2)</f>
+        <f t="shared" si="1"/>
         <v>1.0080819228045629E-2</v>
       </c>
       <c r="S35" s="1">
@@ -13581,7 +12939,7 @@
         <v>3.48226E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>13500</v>
       </c>
@@ -13610,11 +12968,11 @@
         <v>5.6059100000000004E-3</v>
       </c>
       <c r="J36">
-        <f>SQRT(D36^2+E36^2)</f>
+        <f t="shared" si="0"/>
         <v>0.10541995447724734</v>
       </c>
       <c r="K36">
-        <f>SQRT(G36^2+H36^2)</f>
+        <f t="shared" si="1"/>
         <v>7.5342755233399842E-3</v>
       </c>
       <c r="S36" s="1">
@@ -13624,7 +12982,7 @@
         <v>-7.8804300000000008E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>13500</v>
       </c>
@@ -13653,11 +13011,11 @@
         <v>5.6666800000000003E-3</v>
       </c>
       <c r="J37">
-        <f>SQRT(D37^2+E37^2)</f>
+        <f t="shared" si="0"/>
         <v>2.085456766606299E-2</v>
       </c>
       <c r="K37">
-        <f>SQRT(G37^2+H37^2)</f>
+        <f t="shared" si="1"/>
         <v>1.4630676932268034E-3</v>
       </c>
       <c r="S37" s="1">
@@ -13667,7 +13025,7 @@
         <v>3.4327799999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>15000</v>
       </c>
@@ -13696,11 +13054,11 @@
         <v>7.7139699999999997E-3</v>
       </c>
       <c r="J38">
-        <f>SQRT(D38^2+E38^2)</f>
+        <f t="shared" si="0"/>
         <v>0.12528241204322696</v>
       </c>
       <c r="K38">
-        <f>SQRT(G38^2+H38^2)</f>
+        <f t="shared" si="1"/>
         <v>8.7847173393854859E-3</v>
       </c>
       <c r="S38" s="1">
@@ -13710,7 +13068,7 @@
         <v>-2.0886699999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>15000</v>
       </c>
@@ -13739,11 +13097,11 @@
         <v>7.3860999999999996E-3</v>
       </c>
       <c r="J39">
-        <f>SQRT(D39^2+E39^2)</f>
+        <f t="shared" si="0"/>
         <v>0.10556840986417292</v>
       </c>
       <c r="K39">
-        <f>SQRT(G39^2+H39^2)</f>
+        <f t="shared" si="1"/>
         <v>8.1777990323313766E-3</v>
       </c>
       <c r="S39" s="1">
@@ -13753,7 +13111,7 @@
         <v>-3.0696500000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>15000</v>
       </c>
@@ -13782,11 +13140,11 @@
         <v>7.3004599999999999E-3</v>
       </c>
       <c r="J40">
-        <f>SQRT(D40^2+E40^2)</f>
+        <f t="shared" si="0"/>
         <v>0.1244280902925059</v>
       </c>
       <c r="K40">
-        <f>SQRT(G40^2+H40^2)</f>
+        <f t="shared" si="1"/>
         <v>9.2643904188448364E-3</v>
       </c>
       <c r="S40" s="1">
@@ -13796,7 +13154,7 @@
         <v>1.16978E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>15000</v>
       </c>
@@ -13825,11 +13183,11 @@
         <v>7.0901999999999996E-3</v>
       </c>
       <c r="J41">
-        <f>SQRT(D41^2+E41^2)</f>
+        <f t="shared" si="0"/>
         <v>0.13883680365540688</v>
       </c>
       <c r="K41">
-        <f>SQRT(G41^2+H41^2)</f>
+        <f t="shared" si="1"/>
         <v>1.0045847842969751E-2</v>
       </c>
       <c r="S41" s="1">
@@ -13839,7 +13197,7 @@
         <v>3.4480499999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>15000</v>
       </c>
@@ -13868,11 +13226,11 @@
         <v>6.9982999999999998E-3</v>
       </c>
       <c r="J42">
-        <f>SQRT(D42^2+E42^2)</f>
+        <f t="shared" si="0"/>
         <v>0.18936292799690227</v>
       </c>
       <c r="K42">
-        <f>SQRT(G42^2+H42^2)</f>
+        <f t="shared" si="1"/>
         <v>1.3664491602211185E-2</v>
       </c>
       <c r="S42" s="1">
@@ -13882,7 +13240,7 @@
         <v>-2.45866E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>15000</v>
       </c>
@@ -13911,11 +13269,11 @@
         <v>7.02763E-3</v>
       </c>
       <c r="J43">
-        <f>SQRT(D43^2+E43^2)</f>
+        <f t="shared" si="0"/>
         <v>9.5467836408669071E-2</v>
       </c>
       <c r="K43">
-        <f>SQRT(G43^2+H43^2)</f>
+        <f t="shared" si="1"/>
         <v>6.7728900248803688E-3</v>
       </c>
       <c r="S43" s="1">
@@ -13932,24 +13290,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
